--- a/REVER_DailyTracker_20200720.xlsx
+++ b/REVER_DailyTracker_20200720.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965890B6-0123-4448-B2AD-2DE28DC19CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86036F9-76AE-491C-B9A8-1D89E2699CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -335,6 +335,12 @@
   <si>
     <t>The communication board task has been completed, log implemented and tested in all SSCs and working fine, whereas a
 rerun process is pending now.</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Vastu Project set up</t>
   </si>
 </sst>
 </file>
@@ -344,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +372,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -443,10 +463,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -483,9 +506,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{CB26E4D4-B759-4C82-BAD4-9B743CC8254E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -800,22 +828,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -836,7 +864,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -846,8 +874,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -859,7 +887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -870,10 +898,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -887,9 +915,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -903,9 +931,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -919,8 +947,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -937,19 +965,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -967,13 +995,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -987,7 +1015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1017,12 +1045,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1030,7 +1058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1063,12 +1091,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1090,12 +1118,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1127,12 +1155,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1140,7 +1168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1164,12 +1192,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1185,7 +1213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1201,7 +1229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1209,12 +1237,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1222,7 +1250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1230,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1246,7 +1274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1254,12 +1282,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1315,12 +1343,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1336,12 +1364,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1349,22 +1377,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1372,7 +1400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1396,12 +1424,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1424,18 +1452,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1467,7 +1495,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1476,46 +1504,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1532,22 +1560,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1570,16 +1598,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44032</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1588,46 +1624,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1648,18 +1684,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1691,7 +1727,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1700,46 +1736,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1760,18 +1796,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1803,7 +1839,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1812,46 +1848,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1872,18 +1908,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1927,7 +1963,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1936,46 +1972,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1996,18 +2032,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2039,7 +2075,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2048,46 +2084,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2108,18 +2144,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2151,7 +2187,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2160,46 +2196,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2220,18 +2256,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2263,7 +2299,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2272,46 +2308,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2332,18 +2368,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2366,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2375,7 +2411,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2384,46 +2420,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200720.xlsx
+++ b/REVER_DailyTracker_20200720.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86036F9-76AE-491C-B9A8-1D89E2699CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AEA4C9-DB0F-451F-BDCC-35E2E2179DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Vastu Project set up</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>creditinfo changes</t>
   </si>
 </sst>
 </file>
@@ -832,15 +838,15 @@
       <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -875,7 +881,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -901,7 +907,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -933,7 +939,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1192,12 +1198,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1452,15 +1458,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1560,19 +1566,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1684,15 +1690,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1792,19 +1798,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1833,9 +1839,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1908,15 +1920,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2032,15 +2044,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2144,15 +2156,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2256,15 +2268,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2368,15 +2380,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
